--- a/biology/Médecine/Joseph-Pierre_Durand/Joseph-Pierre_Durand.xlsx
+++ b/biology/Médecine/Joseph-Pierre_Durand/Joseph-Pierre_Durand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph-Pierre Durand, dit Durand de Gros, né le 16 juin 1826 près de Rodez et mort le 17 novembre 1900 près de Rodez, est un médecin et physiologiste français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Républicain engagé, il est contraint de s'exiler à Londres après le coup d'État de 1851 où il découvre l'hypnotisme. Il termine ses études médicales à Philadelphie et publie de nombreux livres sur cette nouvelle discipline[1].
-Il rentre en France en 1860 et mène une activité de conférencier et d'essayiste puisqu'il publie de nombreux ouvrages consacrés à la physiologie et à la linguistique[2], des essais moraux et politiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Républicain engagé, il est contraint de s'exiler à Londres après le coup d'État de 1851 où il découvre l'hypnotisme. Il termine ses études médicales à Philadelphie et publie de nombreux livres sur cette nouvelle discipline.
+Il rentre en France en 1860 et mène une activité de conférencier et d'essayiste puisqu'il publie de nombreux ouvrages consacrés à la physiologie et à la linguistique, des essais moraux et politiques.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Électro-dynamisme vital, 1855
 Essais de physiologie philosophique, suivis d'une étude sur la théorie de la méthode en général, 1866
